--- a/medicine/Psychotrope/Lei_cha/Lei_cha.xlsx
+++ b/medicine/Psychotrope/Lei_cha/Lei_cha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lei cha (chinois : 擂茶 ; pinyin : léi chá), thé pilé ou thé broyé, est une boisson traditionnelle du sud de la Chine à base de thé. Son essor remonte à la période des Trois Royaumes et à la dynastie des Han. Elle est très populaire notamment chez les Hakka et au nord de la province du Hunan.
 </t>
@@ -511,7 +523,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que l'on puisse l'acheter fabriqué à l'avance, il est généralement préparé entièrement juste avant d'être consommé. 
 Le thé pilé est un mélange de:
@@ -550,7 +564,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce thé se boit au petit déjeuner ou est pris en hiver comme un délicieux fortifiant. 
 Il peut aussi se boire comme remède diététique, il est alors servi avec du riz et d'autres garnitures végétariennes telles que du tofu ou du radis en saumure.
